--- a/biology/Histoire de la zoologie et de la botanique/William_Elford_Leach/William_Elford_Leach.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Elford_Leach/William_Elford_Leach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Elford Leach est un  zoologiste britannique, né le 2 février 1790 à Plymouth et mort le 26 août 1836 près de Tortone (Piémont).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de notaire, William Leach fait ses études à Exeter, notamment d’anatomie et de chimie. Mais il passe son temps à récolter des organismes marins sur les côtes vers Plymouth et le long du Devon. À 17 ans, il commence à étudier la médecine à l’hôpital St Bartholomew de Londres, notamment auprès de John Abernethy (1764-1831), et finit sa formation à l’université d’Édimbourg et à St Andrews. Il obtient son doctorat de médecine en 1812 à Édimbourg mais ne pratiqua jamais.
 En 1813, Leach revient à ses premières amours zoologiques et est embauché comme assistant-bibliothécaire au département de zoologie du British Museum. Il organise, de lui-même, les collections, la plupart n’ayant pas été touchées depuis la création du muséum par Sir Hans Sloane (1660-1753). Durant ce temps, il devient conservateur-assistant au département d’histoire naturelle et devient un spécialiste des crustacés et des mollusques. Il travaille également sur les insectes, les mammifères et les oiseaux. Il devient membre, en 1816, de la Royal Society ainsi que de nombreuses autres sociétés savantes.
